--- a/bbdd/QUINIELA_2_FEATURES.xlsx
+++ b/bbdd/QUINIELA_2_FEATURES.xlsx
@@ -127,7 +127,61 @@
     <t>X</t>
   </si>
   <si>
-    <t>2019-12-22</t>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Espanyol</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Levante</t>
   </si>
   <si>
     <t>Mallorca</t>
@@ -136,88 +190,34 @@
     <t>Villarreal</t>
   </si>
   <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Leganes</t>
+    <t>Real Betis</t>
   </si>
   <si>
     <t>Osasuna</t>
   </si>
   <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
     <t>Las Palmas</t>
   </si>
   <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
     <t>Almeria</t>
   </si>
   <si>
+    <t>Albacete</t>
+  </si>
+  <si>
     <t>Huesca</t>
   </si>
   <si>
-    <t>Alcorcon</t>
+    <t>Racing Santander</t>
   </si>
   <si>
     <t>Girona</t>
   </si>
   <si>
+    <t>Malaga</t>
+  </si>
+  <si>
     <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Espanyol</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Numancia</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Alaves</t>
   </si>
 </sst>
 </file>
@@ -711,94 +711,94 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>0.06666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H2">
         <v>0.4666666666666667</v>
       </c>
       <c r="I2">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="J2">
+        <v>0.5757575757575757</v>
+      </c>
+      <c r="K2">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="L2">
+        <v>0.03030303030303039</v>
+      </c>
+      <c r="M2">
+        <v>0.4920634920634921</v>
+      </c>
+      <c r="N2">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="O2">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="P2">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="Q2">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="R2">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="S2">
         <v>0.2121212121212121</v>
-      </c>
-      <c r="K2">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="L2">
-        <v>0.5757575757575757</v>
-      </c>
-      <c r="M2">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="N2">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="O2">
-        <v>0.492063492063492</v>
-      </c>
-      <c r="P2">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q2">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="R2">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="S2">
-        <v>0.5757575757575757</v>
       </c>
       <c r="T2">
         <v>0.2121212121212121</v>
       </c>
       <c r="U2">
-        <v>0.2121212121212122</v>
+        <v>0.5757575757575757</v>
       </c>
       <c r="V2">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="W2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="X2">
+        <v>0.5873015873015872</v>
+      </c>
+      <c r="Y2">
         <v>0.4920634920634921</v>
       </c>
-      <c r="W2">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="X2">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="Y2">
-        <v>0.4385964912280702</v>
-      </c>
       <c r="Z2">
-        <v>0.2280701754385965</v>
+        <v>0.4920634920634921</v>
       </c>
       <c r="AA2">
-        <v>0.3333333333333333</v>
+        <v>0.01587301587301582</v>
       </c>
       <c r="AB2">
-        <v>0.543859649122807</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AC2">
-        <v>0.2280701754385965</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="AD2">
-        <v>0.2280701754385965</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="AE2">
-        <v>0.2063492063492063</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="AF2">
         <v>0.3015873015873016</v>
       </c>
       <c r="AG2">
-        <v>0.4920634920634921</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="AH2">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="AI2">
         <v>0.2121212121212121</v>
       </c>
-      <c r="AI2">
-        <v>0.5757575757575757</v>
-      </c>
       <c r="AJ2">
-        <v>0.2121212121212122</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -821,94 +821,94 @@
         <v>54</v>
       </c>
       <c r="G3">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H3">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I3">
-        <v>0.06666666666666665</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="J3">
-        <v>0.2121212121212121</v>
+        <v>0.5757575757575757</v>
       </c>
       <c r="K3">
-        <v>0.2121212121212121</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L3">
-        <v>0.5757575757575757</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="M3">
-        <v>0.3015873015873016</v>
+        <v>0.4920634920634921</v>
       </c>
       <c r="N3">
         <v>0.2063492063492063</v>
       </c>
       <c r="O3">
-        <v>0.492063492063492</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="P3">
-        <v>0.8666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Q3">
-        <v>0.06666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R3">
-        <v>0.06666666666666675</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="S3">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="T3">
         <v>0.5757575757575757</v>
-      </c>
-      <c r="T3">
-        <v>0.3939393939393939</v>
       </c>
       <c r="U3">
         <v>0.03030303030303039</v>
       </c>
       <c r="V3">
-        <v>0.6825396825396826</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="W3">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="X3">
+        <v>0.01587301587301582</v>
+      </c>
+      <c r="Y3">
+        <v>0.4920634920634921</v>
+      </c>
+      <c r="Z3">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="AA3">
         <v>0.2063492063492063</v>
       </c>
-      <c r="X3">
+      <c r="AB3">
+        <v>0.4920634920634921</v>
+      </c>
+      <c r="AC3">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="AD3">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="AE3">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="AF3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="Y3">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="Z3">
-        <v>0.4901960784313726</v>
-      </c>
-      <c r="AA3">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="AB3">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="AC3">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="AD3">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="AE3">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="AF3">
-        <v>0.2063492063492063</v>
-      </c>
       <c r="AG3">
-        <v>0.3968253968253968</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="AH3">
-        <v>0.5757575757575757</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="AI3">
-        <v>0.0303030303030303</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="AJ3">
-        <v>0.393939393939394</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -931,94 +931,94 @@
         <v>55</v>
       </c>
       <c r="G4">
-        <v>0.06666666666666667</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="H4">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I4">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666675</v>
       </c>
       <c r="J4">
+        <v>0.5757575757575757</v>
+      </c>
+      <c r="K4">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="L4">
+        <v>0.2121212121212122</v>
+      </c>
+      <c r="M4">
+        <v>0.4920634920634921</v>
+      </c>
+      <c r="N4">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="O4">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="P4">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="Q4">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="R4">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="S4">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="T4">
         <v>0.0303030303030303</v>
       </c>
-      <c r="K4">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="L4">
+      <c r="U4">
         <v>0.5757575757575758</v>
-      </c>
-      <c r="M4">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="N4">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="O4">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="P4">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="Q4">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="R4">
-        <v>0.06666666666666665</v>
-      </c>
-      <c r="S4">
-        <v>0.5757575757575757</v>
-      </c>
-      <c r="T4">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="U4">
-        <v>0.2121212121212122</v>
       </c>
       <c r="V4">
         <v>0.4920634920634921</v>
       </c>
       <c r="W4">
-        <v>0.3015873015873016</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="X4">
+        <v>0.492063492063492</v>
+      </c>
+      <c r="Y4">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="Z4">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="AA4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AB4">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="AC4">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="AD4">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="AE4">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="AF4">
         <v>0.2063492063492063</v>
       </c>
-      <c r="Y4">
-        <v>0.2888888888888889</v>
-      </c>
-      <c r="Z4">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="AA4">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="AB4">
-        <v>0.3725490196078431</v>
-      </c>
-      <c r="AC4">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="AD4">
-        <v>0.4901960784313725</v>
-      </c>
-      <c r="AE4">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AF4">
-        <v>0.3968253968253969</v>
-      </c>
       <c r="AG4">
-        <v>0.492063492063492</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="AH4">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="AI4">
         <v>0.0303030303030303</v>
       </c>
-      <c r="AI4">
-        <v>0.3939393939393939</v>
-      </c>
       <c r="AJ4">
-        <v>0.5757575757575758</v>
+        <v>0.03030303030303025</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1044,46 +1044,46 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="H5">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I5">
-        <v>0.06666666666666665</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="J5">
-        <v>0.2121212121212121</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="K5">
-        <v>0.3939393939393939</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L5">
-        <v>0.3939393939393939</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="M5">
-        <v>0.2063492063492063</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="N5">
-        <v>0.2063492063492063</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O5">
-        <v>0.5873015873015874</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="P5">
         <v>0.06666666666666667</v>
       </c>
       <c r="Q5">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="R5">
-        <v>0.4666666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="S5">
         <v>0.0303030303030303</v>
       </c>
       <c r="T5">
-        <v>0.3939393939393939</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="U5">
-        <v>0.5757575757575758</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="V5">
         <v>0.1111111111111111</v>
@@ -1095,40 +1095,40 @@
         <v>0.6825396825396826</v>
       </c>
       <c r="Y5">
-        <v>0.2280701754385965</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="Z5">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AA5">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="AB5">
+        <v>0.01754385964912281</v>
+      </c>
+      <c r="AC5">
         <v>0.1228070175438597</v>
       </c>
-      <c r="AA5">
-        <v>0.6491228070175438</v>
-      </c>
-      <c r="AB5">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="AC5">
-        <v>0.2549019607843137</v>
-      </c>
       <c r="AD5">
-        <v>0.4901960784313726</v>
+        <v>0.8596491228070174</v>
       </c>
       <c r="AE5">
-        <v>0.3333333333333333</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="AF5">
-        <v>0.02564102564102564</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="AG5">
-        <v>0.6410256410256411</v>
+        <v>0.1555555555555555</v>
       </c>
       <c r="AH5">
-        <v>0.3333333333333334</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="AI5">
-        <v>0.04761904761904762</v>
+        <v>0.2592592592592593</v>
       </c>
       <c r="AJ5">
-        <v>0.6190476190476191</v>
+        <v>0.2592592592592593</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1151,46 +1151,46 @@
         <v>57</v>
       </c>
       <c r="G6">
-        <v>0.06666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H6">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I6">
         <v>0.4666666666666667</v>
       </c>
       <c r="J6">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="K6">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="L6">
+        <v>0.2121212121212122</v>
+      </c>
+      <c r="M6">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="N6">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="O6">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="P6">
+        <v>0.8666666666666666</v>
+      </c>
+      <c r="Q6">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="R6">
+        <v>0.06666666666666675</v>
+      </c>
+      <c r="S6">
+        <v>0.5757575757575757</v>
+      </c>
+      <c r="T6">
         <v>0.2121212121212121</v>
-      </c>
-      <c r="K6">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="L6">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="M6">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="N6">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="O6">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="P6">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q6">
-        <v>0.8666666666666666</v>
-      </c>
-      <c r="R6">
-        <v>0.06666666666666676</v>
-      </c>
-      <c r="S6">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="T6">
-        <v>0.5757575757575757</v>
       </c>
       <c r="U6">
         <v>0.2121212121212122</v>
@@ -1199,46 +1199,46 @@
         <v>0.3968253968253969</v>
       </c>
       <c r="W6">
-        <v>0.3015873015873016</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="X6">
-        <v>0.3015873015873016</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="Y6">
-        <v>0.3725490196078431</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="Z6">
-        <v>0.4901960784313726</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="AA6">
-        <v>0.1372549019607843</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AB6">
-        <v>0.4385964912280702</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="AC6">
-        <v>0.2280701754385965</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="AD6">
-        <v>0.3333333333333333</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="AE6">
         <v>0.2063492063492063</v>
       </c>
       <c r="AF6">
-        <v>0.3968253968253969</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="AG6">
-        <v>0.3968253968253969</v>
+        <v>0.5873015873015874</v>
       </c>
       <c r="AH6">
-        <v>0.3939393939393939</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="AI6">
-        <v>0.3939393939393939</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="AJ6">
-        <v>0.2121212121212122</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1261,40 +1261,40 @@
         <v>58</v>
       </c>
       <c r="G7">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H7">
         <v>0.4666666666666667</v>
       </c>
       <c r="I7">
-        <v>0.06666666666666665</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="J7">
-        <v>0.5757575757575757</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K7">
-        <v>0.2121212121212121</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L7">
-        <v>0.2121212121212122</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="M7">
-        <v>0.3968253968253969</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="N7">
         <v>0.3015873015873016</v>
       </c>
       <c r="O7">
-        <v>0.3015873015873016</v>
+        <v>0.4920634920634921</v>
       </c>
       <c r="P7">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q7">
         <v>0.4666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.06666666666666665</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="S7">
         <v>0.3939393939393939</v>
@@ -1306,49 +1306,49 @@
         <v>0.2121212121212122</v>
       </c>
       <c r="V7">
-        <v>0.3015873015873016</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="W7">
-        <v>0.5873015873015873</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="X7">
-        <v>0.111111111111111</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="Y7">
-        <v>0.543859649122807</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="Z7">
-        <v>0.2280701754385965</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="AA7">
-        <v>0.2280701754385965</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="AB7">
-        <v>0.2549019607843137</v>
+        <v>0.1228070175438597</v>
       </c>
       <c r="AC7">
-        <v>0.607843137254902</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="AD7">
-        <v>0.1372549019607843</v>
+        <v>0.4385964912280701</v>
       </c>
       <c r="AE7">
-        <v>0.1111111111111111</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="AF7">
-        <v>0.2063492063492063</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="AG7">
-        <v>0.6825396825396826</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="AH7">
         <v>0.2121212121212121</v>
       </c>
       <c r="AI7">
-        <v>0.2121212121212121</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="AJ7">
-        <v>0.5757575757575757</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1371,31 +1371,31 @@
         <v>59</v>
       </c>
       <c r="G8">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H8">
-        <v>0.06666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I8">
         <v>0.4666666666666667</v>
       </c>
       <c r="J8">
-        <v>0.3939393939393939</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K8">
-        <v>0.0303030303030303</v>
+        <v>0.5757575757575757</v>
       </c>
       <c r="L8">
-        <v>0.5757575757575758</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="M8">
-        <v>0.4920634920634921</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N8">
-        <v>0.01587301587301587</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="O8">
-        <v>0.492063492063492</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="P8">
         <v>0.06666666666666667</v>
@@ -1416,49 +1416,49 @@
         <v>0.3939393939393939</v>
       </c>
       <c r="V8">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="W8">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="X8">
+        <v>0.3015873015873015</v>
+      </c>
+      <c r="Y8">
         <v>0.2063492063492063</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="AA8">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="AB8">
         <v>0.2063492063492063</v>
       </c>
-      <c r="X8">
-        <v>0.5873015873015874</v>
-      </c>
-      <c r="Y8">
-        <v>0.4901960784313726</v>
-      </c>
-      <c r="Z8">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="AA8">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="AB8">
-        <v>0.1372549019607843</v>
-      </c>
       <c r="AC8">
-        <v>0.2549019607843137</v>
+        <v>0.4920634920634921</v>
       </c>
       <c r="AD8">
-        <v>0.607843137254902</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="AE8">
+        <v>0.4920634920634921</v>
+      </c>
+      <c r="AF8">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="AG8">
         <v>0.2063492063492063</v>
       </c>
-      <c r="AF8">
-        <v>0.01587301587301587</v>
-      </c>
-      <c r="AG8">
-        <v>0.7777777777777779</v>
-      </c>
       <c r="AH8">
-        <v>0.0303030303030303</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="AI8">
-        <v>0.0303030303030303</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="AJ8">
-        <v>0.9393939393939394</v>
+        <v>0.2121212121212122</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1466,7 +1466,7 @@
         <v>2019</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -1481,49 +1481,49 @@
         <v>60</v>
       </c>
       <c r="G9">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H9">
-        <v>0.4666666666666667</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="I9">
-        <v>0.06666666666666665</v>
+        <v>0.06666666666666676</v>
       </c>
       <c r="J9">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="K9">
         <v>0.7575757575757577</v>
       </c>
-      <c r="K9">
-        <v>0.2121212121212121</v>
-      </c>
       <c r="L9">
-        <v>0.03030303030303019</v>
+        <v>0.03030303030303017</v>
       </c>
       <c r="M9">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="N9">
         <v>0.5873015873015873</v>
       </c>
-      <c r="N9">
-        <v>0.3015873015873016</v>
-      </c>
       <c r="O9">
-        <v>0.1111111111111111</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="P9">
         <v>0.06666666666666667</v>
       </c>
       <c r="Q9">
-        <v>0.4666666666666667</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="R9">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666676</v>
       </c>
       <c r="S9">
         <v>0.5757575757575757</v>
       </c>
       <c r="T9">
-        <v>0.2121212121212121</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="U9">
-        <v>0.2121212121212122</v>
+        <v>0.03030303030303039</v>
       </c>
       <c r="V9">
         <v>0.3968253968253969</v>
@@ -1535,40 +1535,40 @@
         <v>0.3015873015873016</v>
       </c>
       <c r="Y9">
-        <v>0.7254901960784315</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="Z9">
-        <v>0.2549019607843137</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="AA9">
-        <v>0.01960784313725483</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="AB9">
-        <v>0.1372549019607843</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="AC9">
-        <v>0.4901960784313726</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="AD9">
-        <v>0.3725490196078431</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="AE9">
-        <v>0.5873015873015873</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AF9">
-        <v>0.3015873015873016</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AG9">
+        <v>0.06666666666666665</v>
+      </c>
+      <c r="AH9">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AH9">
-        <v>0.7575757575757577</v>
-      </c>
       <c r="AI9">
-        <v>0.2121212121212121</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AJ9">
-        <v>0.03030303030303019</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1591,32 +1591,32 @@
         <v>61</v>
       </c>
       <c r="G10">
-        <v>0.8666666666666666</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H10">
-        <v>0.06666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10">
-        <v>0.06666666666666675</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="J10">
-        <v>0.7575757575757577</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K10">
-        <v>0.0303030303030303</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L10">
-        <v>0.212121212121212</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="M10">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="N10">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="O10">
         <v>0.4920634920634921</v>
       </c>
-      <c r="N10">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O10">
-        <v>0.3968253968253968</v>
-      </c>
       <c r="P10">
         <v>0.4666666666666667</v>
       </c>
@@ -1627,58 +1627,58 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="S10">
+        <v>0.5757575757575757</v>
+      </c>
+      <c r="T10">
         <v>0.2121212121212121</v>
       </c>
-      <c r="T10">
-        <v>0.3939393939393939</v>
-      </c>
       <c r="U10">
-        <v>0.3939393939393939</v>
+        <v>0.2121212121212122</v>
       </c>
       <c r="V10">
-        <v>0.3015873015873016</v>
+        <v>0.4920634920634921</v>
       </c>
       <c r="W10">
-        <v>0.3015873015873016</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="X10">
-        <v>0.3968253968253968</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Y10">
-        <v>0.4920634920634921</v>
+        <v>0.2533333333333333</v>
       </c>
       <c r="Z10">
-        <v>0.2063492063492063</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AA10">
-        <v>0.3015873015873016</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="AB10">
-        <v>0.2063492063492063</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AC10">
-        <v>0.4920634920634921</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="AD10">
-        <v>0.3015873015873016</v>
+        <v>0.09333333333333327</v>
       </c>
       <c r="AE10">
-        <v>0.3968253968253969</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="AF10">
-        <v>0.2063492063492063</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="AG10">
-        <v>0.3968253968253968</v>
+        <v>0.3015873015873015</v>
       </c>
       <c r="AH10">
-        <v>0.5757575757575757</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="AI10">
         <v>0.2121212121212121</v>
       </c>
       <c r="AJ10">
-        <v>0.2121212121212122</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1704,88 +1704,88 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="H11">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I11">
-        <v>0.06666666666666665</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="J11">
-        <v>0.3939393939393939</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="K11">
-        <v>0.3939393939393939</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L11">
-        <v>0.2121212121212122</v>
+        <v>0.5757575757575757</v>
       </c>
       <c r="M11">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="N11">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="O11">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="P11">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="Q11">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="R11">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="S11">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="T11">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="U11">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="V11">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="W11">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="X11">
+        <v>0.492063492063492</v>
+      </c>
+      <c r="Y11">
+        <v>0.1884057971014493</v>
+      </c>
+      <c r="Z11">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="AA11">
+        <v>0.3623188405797101</v>
+      </c>
+      <c r="AB11">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="AC11">
+        <v>0.1014492753623188</v>
+      </c>
+      <c r="AD11">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="AE11">
         <v>0.4920634920634921</v>
       </c>
-      <c r="N11">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="O11">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="P11">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="Q11">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="R11">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="S11">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="T11">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="U11">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="V11">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="W11">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="X11">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="Y11">
-        <v>0.7543859649122807</v>
-      </c>
-      <c r="Z11">
-        <v>0.2280701754385965</v>
-      </c>
-      <c r="AA11">
-        <v>0.01754385964912281</v>
-      </c>
-      <c r="AB11">
-        <v>0.1228070175438597</v>
-      </c>
-      <c r="AC11">
-        <v>0.543859649122807</v>
-      </c>
-      <c r="AD11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AE11">
-        <v>0.5873015873015873</v>
-      </c>
       <c r="AF11">
-        <v>0.3015873015873016</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="AG11">
-        <v>0.1111111111111111</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="AH11">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="AI11">
         <v>0.5757575757575757</v>
-      </c>
-      <c r="AI11">
-        <v>0.3939393939393939</v>
       </c>
       <c r="AJ11">
         <v>0.03030303030303039</v>
@@ -1820,85 +1820,85 @@
         <v>0.06666666666666665</v>
       </c>
       <c r="J12">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="K12">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="L12">
+        <v>0.2121212121212122</v>
+      </c>
+      <c r="M12">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="N12">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="O12">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="P12">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="Q12">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="R12">
+        <v>0.06666666666666665</v>
+      </c>
+      <c r="S12">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="T12">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="U12">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="V12">
+        <v>0.4920634920634921</v>
+      </c>
+      <c r="W12">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="X12">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="Y12">
+        <v>0.2753623188405797</v>
+      </c>
+      <c r="Z12">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="AA12">
+        <v>0.2753623188405797</v>
+      </c>
+      <c r="AB12">
+        <v>0.2753623188405797</v>
+      </c>
+      <c r="AC12">
+        <v>0.1884057971014493</v>
+      </c>
+      <c r="AD12">
+        <v>0.5362318840579711</v>
+      </c>
+      <c r="AE12">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="AF12">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="AG12">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="AH12">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="AI12">
         <v>0.5757575757575757</v>
       </c>
-      <c r="K12">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="L12">
-        <v>0.03030303030303039</v>
-      </c>
-      <c r="M12">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="N12">
-        <v>0.5873015873015873</v>
-      </c>
-      <c r="O12">
-        <v>0.01587301587301582</v>
-      </c>
-      <c r="P12">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="Q12">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="R12">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="S12">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="T12">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="U12">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="V12">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="W12">
-        <v>0.4920634920634921</v>
-      </c>
-      <c r="X12">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="Y12">
-        <v>0.6491228070175439</v>
-      </c>
-      <c r="Z12">
-        <v>0.2280701754385965</v>
-      </c>
-      <c r="AA12">
-        <v>0.1228070175438596</v>
-      </c>
-      <c r="AB12">
-        <v>0.1228070175438597</v>
-      </c>
-      <c r="AC12">
-        <v>0.4385964912280702</v>
-      </c>
-      <c r="AD12">
-        <v>0.4385964912280701</v>
-      </c>
-      <c r="AE12">
-        <v>0.6410256410256411</v>
-      </c>
-      <c r="AF12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AG12">
-        <v>0.02564102564102561</v>
-      </c>
-      <c r="AH12">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="AI12">
-        <v>0.3333333333333334</v>
-      </c>
       <c r="AJ12">
-        <v>0.04761904761904767</v>
+        <v>0.2121212121212122</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1921,94 +1921,94 @@
         <v>64</v>
       </c>
       <c r="G13">
-        <v>0.06666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H13">
-        <v>0.06666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I13">
-        <v>0.8666666666666667</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="J13">
         <v>0.3939393939393939</v>
       </c>
       <c r="K13">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="L13">
+        <v>0.2121212121212122</v>
+      </c>
+      <c r="M13">
+        <v>0.4920634920634921</v>
+      </c>
+      <c r="N13">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="O13">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="P13">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="Q13">
+        <v>0.8666666666666666</v>
+      </c>
+      <c r="R13">
+        <v>0.06666666666666676</v>
+      </c>
+      <c r="S13">
         <v>0.0303030303030303</v>
       </c>
-      <c r="L13">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="M13">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="N13">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="O13">
-        <v>0.3968253968253968</v>
-      </c>
-      <c r="P13">
-        <v>0.8666666666666666</v>
-      </c>
-      <c r="Q13">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="R13">
-        <v>0.06666666666666675</v>
-      </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.5757575757575757</v>
       </c>
-      <c r="T13">
-        <v>0.2121212121212121</v>
-      </c>
       <c r="U13">
-        <v>0.2121212121212122</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="V13">
-        <v>0.3968253968253969</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="W13">
-        <v>0.2063492063492063</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="X13">
-        <v>0.3968253968253968</v>
+        <v>0.3015873015873015</v>
       </c>
       <c r="Y13">
-        <v>0.6825396825396826</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="Z13">
-        <v>0.1111111111111111</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="AA13">
-        <v>0.2063492063492063</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="AB13">
-        <v>0.4385964912280702</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="AC13">
-        <v>0.3333333333333333</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="AD13">
-        <v>0.2280701754385965</v>
+        <v>0.3623188405797102</v>
       </c>
       <c r="AE13">
-        <v>0.1372549019607843</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="AF13">
-        <v>0.3725490196078431</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="AG13">
-        <v>0.4901960784313726</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="AH13">
-        <v>0.2592592592592593</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="AI13">
-        <v>0.2592592592592593</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AJ13">
-        <v>0.4814814814814814</v>
+        <v>0.619047619047619</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -2031,20 +2031,20 @@
         <v>65</v>
       </c>
       <c r="G14">
-        <v>0.06666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H14">
         <v>0.4666666666666667</v>
       </c>
       <c r="I14">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="J14">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="K14">
         <v>0.2121212121212121</v>
       </c>
-      <c r="K14">
-        <v>0.3939393939393939</v>
-      </c>
       <c r="L14">
         <v>0.3939393939393939</v>
       </c>
@@ -2052,73 +2052,73 @@
         <v>0.3015873015873016</v>
       </c>
       <c r="N14">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="O14">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="P14">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="Q14">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="R14">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="S14">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="T14">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="U14">
+        <v>0.5757575757575757</v>
+      </c>
+      <c r="V14">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="W14">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="X14">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="Y14">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="Z14">
+        <v>0.3968253968253969</v>
+      </c>
+      <c r="AA14">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="AB14">
+        <v>0.1884057971014493</v>
+      </c>
+      <c r="AC14">
+        <v>0.1884057971014493</v>
+      </c>
+      <c r="AD14">
+        <v>0.6231884057971016</v>
+      </c>
+      <c r="AE14">
         <v>0.4920634920634921</v>
       </c>
-      <c r="O14">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="P14">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q14">
-        <v>0.8666666666666666</v>
-      </c>
-      <c r="R14">
-        <v>0.06666666666666676</v>
-      </c>
-      <c r="S14">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="T14">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="U14">
-        <v>0.2121212121212122</v>
-      </c>
-      <c r="V14">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="W14">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="X14">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="Y14">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>0.1111111111111111</v>
       </c>
-      <c r="AA14">
-        <v>0.5873015873015872</v>
-      </c>
-      <c r="AB14">
-        <v>0.3968253968253969</v>
-      </c>
-      <c r="AC14">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="AD14">
+      <c r="AG14">
         <v>0.3968253968253968</v>
       </c>
-      <c r="AE14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AF14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AG14">
-        <v>0.3333333333333334</v>
-      </c>
       <c r="AH14">
-        <v>0.3333333333333333</v>
+        <v>0.5757575757575757</v>
       </c>
       <c r="AI14">
-        <v>0.3333333333333333</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="AJ14">
-        <v>0.3333333333333334</v>
+        <v>0.393939393939394</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -2141,13 +2141,13 @@
         <v>66</v>
       </c>
       <c r="G15">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H15">
-        <v>0.06666666666666667</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="I15">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666676</v>
       </c>
       <c r="J15">
         <v>0.3939393939393939</v>
@@ -2159,76 +2159,76 @@
         <v>0.2121212121212122</v>
       </c>
       <c r="M15">
-        <v>0.3968253968253969</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="N15">
-        <v>0.3015873015873016</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="O15">
-        <v>0.3015873015873016</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="P15">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q15">
-        <v>0.06666666666666667</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="R15">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666676</v>
       </c>
       <c r="S15">
-        <v>0.5757575757575757</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="T15">
-        <v>0.2121212121212121</v>
+        <v>0.7575757575757577</v>
       </c>
       <c r="U15">
-        <v>0.2121212121212122</v>
+        <v>0.03030303030303017</v>
       </c>
       <c r="V15">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="W15">
         <v>0.5873015873015873</v>
       </c>
-      <c r="W15">
-        <v>0.2063492063492063</v>
-      </c>
       <c r="X15">
-        <v>0.2063492063492063</v>
+        <v>0.2063492063492064</v>
       </c>
       <c r="Y15">
-        <v>0.6825396825396826</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="Z15">
-        <v>0.2063492063492063</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="AA15">
-        <v>0.1111111111111111</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="AB15">
-        <v>0.2280701754385965</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="AC15">
-        <v>0.2280701754385965</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="AD15">
-        <v>0.5438596491228069</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="AE15">
-        <v>0.6825396825396826</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="AF15">
-        <v>0.2063492063492063</v>
+        <v>0.4901960784313726</v>
       </c>
       <c r="AG15">
-        <v>0.1111111111111111</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="AH15">
-        <v>0.7575757575757577</v>
+        <v>0.2592592592592593</v>
       </c>
       <c r="AI15">
-        <v>0.2121212121212121</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="AJ15">
-        <v>0.03030303030303019</v>
+        <v>0.03703703703703698</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -2251,94 +2251,94 @@
         <v>67</v>
       </c>
       <c r="G16">
-        <v>0.4666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H16">
         <v>0.4666666666666667</v>
       </c>
       <c r="I16">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="J16">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="K16">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="L16">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="M16">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N16">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="O16">
+        <v>0.5873015873015872</v>
+      </c>
+      <c r="P16">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="Q16">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="R16">
         <v>0.06666666666666665</v>
       </c>
-      <c r="J16">
-        <v>0.7575757575757577</v>
-      </c>
-      <c r="K16">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="L16">
-        <v>0.03030303030303019</v>
-      </c>
-      <c r="M16">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="N16">
+      <c r="S16">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="T16">
+        <v>0.5757575757575757</v>
+      </c>
+      <c r="U16">
+        <v>0.03030303030303039</v>
+      </c>
+      <c r="V16">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="W16">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="X16">
         <v>0.1111111111111111</v>
       </c>
-      <c r="O16">
-        <v>0.1111111111111112</v>
-      </c>
-      <c r="P16">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q16">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="R16">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="S16">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="T16">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="U16">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="V16">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="W16">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="X16">
-        <v>0.492063492063492</v>
-      </c>
       <c r="Y16">
-        <v>0.9555555555555556</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="Z16">
-        <v>0.02222222222222222</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="AA16">
-        <v>0.02222222222222218</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="AB16">
-        <v>0.1372549019607843</v>
+        <v>0.3968253968253969</v>
       </c>
       <c r="AC16">
-        <v>0.1372549019607843</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="AD16">
-        <v>0.7254901960784315</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="AE16">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="AF16">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="AG16">
         <v>0.6825396825396826</v>
       </c>
-      <c r="AF16">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="AG16">
-        <v>0.1111111111111111</v>
-      </c>
       <c r="AH16">
-        <v>0.7575757575757577</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="AI16">
-        <v>0.0303030303030303</v>
+        <v>0.5757575757575757</v>
       </c>
       <c r="AJ16">
-        <v>0.212121212121212</v>
+        <v>0.393939393939394</v>
       </c>
     </row>
   </sheetData>
